--- a/Участок ремонта форм/Формокомплекты/Заявки на изготовление/2019/Горловые кольца В-28-2.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на изготовление/2019/Горловые кольца В-28-2.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$27</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +829,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="11">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.3">
@@ -850,7 +850,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="11">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.3">
